--- a/test-data/sitewide-search.xlsx
+++ b/test-data/sitewide-search.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\WCMS\qa-testing\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA1AF7E4-8419-40C6-AC9F-F8FF06814156}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F601C5B-0157-4AA3-BA38-C17D9E7C46F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BasicSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="SitewideSearch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test-data/sitewide-search.xlsx
+++ b/test-data/sitewide-search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\WCMS\qa-testing\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F601C5B-0157-4AA3-BA38-C17D9E7C46F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5AA7710E-7DD0-4BC1-BFDE-660D2DE1A28E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,48 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>SearchTerm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>breast</t>
   </si>
   <si>
-    <t>brain</t>
-  </si>
-  <si>
     <t>cancer</t>
   </si>
   <si>
     <t>ipilimumab</t>
   </si>
   <si>
-    <t>interferon alpha</t>
-  </si>
-  <si>
     <t>Kaposi's sarcoma</t>
   </si>
   <si>
     <t>shark</t>
   </si>
   <si>
-    <t>Dr. Harold Varmus</t>
-  </si>
-  <si>
-    <t>Gaithersburg</t>
-  </si>
-  <si>
-    <t>bovine</t>
-  </si>
-  <si>
     <t>argle-bargle</t>
   </si>
   <si>
-    <t>foofaraw</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorem ipsum dolor sit amet, consectetur adipiscing elit. Cras vitae neque consectetur, fringilla nunc eget, faucibus sem. Nulla aliquet imperdiet arcu, non dapibus lorem tincidunt pharetra. Donec sollicitudin risus sit amet eros facilisis eleifend. Donec</t>
+  </si>
+  <si>
+    <t>CancerTerm</t>
+  </si>
+  <si>
+    <t>BestBet</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>NoMatch</t>
+  </si>
+  <si>
+    <t>tumor</t>
+  </si>
+  <si>
+    <t>glioma</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>[F-18]HX4</t>
+  </si>
+  <si>
+    <t>10001110101 10001110101</t>
+  </si>
+  <si>
+    <t>Hematologic/Blood Cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdominoperineal resection </t>
+  </si>
+  <si>
+    <t>null allele</t>
+  </si>
+  <si>
+    <t>uninformative</t>
+  </si>
+  <si>
+    <t>lymphoma</t>
+  </si>
+  <si>
+    <t>Dr. Norman E. Sharpless</t>
+  </si>
+  <si>
+    <t>LiveHelp</t>
   </si>
 </sst>
 </file>
@@ -116,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,90 +462,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="228" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/sitewide-search.xlsx
+++ b/test-data/sitewide-search.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\WCMS\qa-testing\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5AA7710E-7DD0-4BC1-BFDE-660D2DE1A28E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2D77DE8-5A36-4F6D-9F96-5133FCC1B7D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SitewideSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="SitewideSearchEs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>breast</t>
   </si>
@@ -94,6 +95,42 @@
   </si>
   <si>
     <t>LiveHelp</t>
+  </si>
+  <si>
+    <t>dolor</t>
+  </si>
+  <si>
+    <t>tabaco</t>
+  </si>
+  <si>
+    <t>linfoma</t>
+  </si>
+  <si>
+    <t>cáncer</t>
+  </si>
+  <si>
+    <t>cáncer de hígado</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>safingol</t>
+  </si>
+  <si>
+    <t>dalteparina sódica</t>
+  </si>
+  <si>
+    <t>macrófago</t>
+  </si>
+  <si>
+    <t>dermis</t>
+  </si>
+  <si>
+    <t>TAC-101</t>
+  </si>
+  <si>
+    <t>lanolina</t>
   </si>
 </sst>
 </file>
@@ -464,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,4 +607,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6634F395-7540-4542-954F-5DFBBE6DB702}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test-data/sitewide-search.xlsx
+++ b/test-data/sitewide-search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\WCMS\qa-testing\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FD299CB-95F4-4F26-B753-AA9819525A16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5C256A7-ABF6-4BE8-BE96-888FABB7C166}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>shark</t>
   </si>
   <si>
-    <t>argle-bargle</t>
-  </si>
-  <si>
     <t>CancerTerm</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Cras vitae neque consectetur, fringilla nunc eget, faucibus sem. Nulla aliquet imperdiet arcu, non dapibus lorem tincidunt pharetra. Donec sollicitudin risus sit amet eros facilisis eleifend. Donec</t>
+  </si>
+  <si>
+    <t>argle-bargle or foofaraw</t>
   </si>
 </sst>
 </file>
@@ -501,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,19 +514,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -545,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,49 +551,49 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,66 +624,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
